--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Web Catalog.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Web Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr_optimization\gr_optimization\Input_Output\BuyflowValidation\Merchandising Input\JLoBeauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B662A-CD47-4BF1-9330-7BB7402E8A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4343BDE-4335-4990-9234-EB8F8FBD1611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{001C9213-F839-49BA-A2B6-6242A2AE86E2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
   <si>
     <t>ACQ Sequence</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Supplementary Cart Language</t>
   </si>
   <si>
-    <t>JL2A0056</t>
+    <t>JL1008WA</t>
+  </si>
+  <si>
+    <t>JLPG009</t>
+  </si>
+  <si>
+    <t>JL2A0136</t>
   </si>
   <si>
     <t>Ready to Ship</t>
@@ -85,7 +91,7 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Duo - Serum+Wonder Cream</t>
+    <t>Star Power Duo</t>
   </si>
   <si>
     <t>2 pc</t>
@@ -94,7 +100,7 @@
     <t>Single</t>
   </si>
   <si>
-    <t>RJLA4C7</t>
+    <t>RJLA4GV</t>
   </si>
   <si>
     <r>
@@ -106,7 +112,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of the Duo - Serum + Wonder Cream. Each shipment will be charged to the card you provide today, approximately every three months at the low price of $116.45 plus $5.99 for shipping and handling, unless you call to cancel.</t>
+      <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of the Star Power Duo. Each shipment will be charged to the card you provide today, approximately every three months at the low price of $137.00 plus $5.99 for shipping and handling, unless you call to cancel.</t>
     </r>
     <r>
       <rPr>
@@ -121,64 +127,22 @@
     </r>
   </si>
   <si>
-    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of the Duo - Serum + Wonder Cream. Each full-size shipment will be charged in one payment of $116.45 plus $5.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting JLoBeauty.com/account.</t>
-  </si>
-  <si>
-    <t>JL.0011</t>
+    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of the Star Power Duo. Each full-size shipment will be charged in one payment of $137.00 plus $5.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting JLoBeauty.com/account.</t>
+  </si>
+  <si>
+    <t>JL0010</t>
   </si>
   <si>
     <t>JLPG006</t>
   </si>
   <si>
-    <t>JL1A0030</t>
-  </si>
-  <si>
-    <t>That JLO Glow</t>
-  </si>
-  <si>
-    <t>1oz |30ml</t>
-  </si>
-  <si>
-    <t>RJLA4FX</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of That JLO Glow. Each shipment will be charged to the card you provide today, approximately every two months at the low price of $67.15 plus $5.99 for shipping and handling, unless you call to cancel.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-All orders are subject to applicable sales tax.</t>
-    </r>
-  </si>
-  <si>
-    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of That JLO Glow. Each full-size shipment will be charged in one payment of $67.15 plus $5.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account.</t>
-  </si>
-  <si>
-    <t>JL0010</t>
-  </si>
-  <si>
     <t>JL2A0060</t>
   </si>
   <si>
-    <t>PreOrder</t>
-  </si>
-  <si>
     <t>Standard</t>
+  </si>
+  <si>
+    <t>That JLo Glow™</t>
   </si>
   <si>
     <t>1.5oz |45ml</t>
@@ -220,7 +184,7 @@
     <t>JL1A0045</t>
   </si>
   <si>
-    <t>That Blockbuster</t>
+    <t>That Blockbuster™</t>
   </si>
   <si>
     <t>1.7oz |50ml</t>
@@ -262,7 +226,7 @@
     <t>JL1A0047</t>
   </si>
   <si>
-    <t>That Hit Single</t>
+    <t>That Hit Single™</t>
   </si>
   <si>
     <t xml:space="preserve">5oz |150ml </t>
@@ -307,10 +271,13 @@
     <t>JL1A0034</t>
   </si>
   <si>
-    <t>That Star Filter</t>
+    <t>That Star Filter™</t>
   </si>
   <si>
     <t>Warm Bronze</t>
+  </si>
+  <si>
+    <t>1oz |30ml</t>
   </si>
   <si>
     <t>RJLA49K</t>
@@ -466,7 +433,7 @@
     <t>JL1A0046</t>
   </si>
   <si>
-    <t>That Fresh Take</t>
+    <t>That Fresh Take™</t>
   </si>
   <si>
     <t>0.5oz |15ml</t>
@@ -508,7 +475,7 @@
     <t>JL1A0032</t>
   </si>
   <si>
-    <t xml:space="preserve">That Big Screen </t>
+    <t>That Big Screen™</t>
   </si>
   <si>
     <t>RJLA4BY</t>
@@ -550,10 +517,10 @@
     <t>JL1A0063</t>
   </si>
   <si>
-    <t>That Limitless Glow</t>
-  </si>
-  <si>
-    <t>3 count no unit carton</t>
+    <t>That Limitless Glow™</t>
+  </si>
+  <si>
+    <t>3 ct</t>
   </si>
   <si>
     <t>RJLA4CR</t>
@@ -586,6 +553,15 @@
     <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of That Limitless Glow. Each full-size shipment will be charged in one payment of $40.80 plus $5.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account.</t>
   </si>
   <si>
+    <t>JL0026</t>
+  </si>
+  <si>
+    <t>JL1A0064</t>
+  </si>
+  <si>
+    <t>1 ct</t>
+  </si>
+  <si>
     <t>Member One-time price</t>
   </si>
   <si>
@@ -601,18 +577,36 @@
     <t>JL1A0016</t>
   </si>
   <si>
+    <t>That Blockbuster</t>
+  </si>
+  <si>
     <t>JL1A0017</t>
   </si>
   <si>
+    <t>That Fresh Take</t>
+  </si>
+  <si>
     <t>JL1A0019</t>
   </si>
   <si>
+    <t>That Hit Single</t>
+  </si>
+  <si>
     <t>JL1A0010</t>
   </si>
   <si>
+    <t xml:space="preserve">That Big Screen </t>
+  </si>
+  <si>
+    <t>JL.0011</t>
+  </si>
+  <si>
     <t>JL1A0013</t>
   </si>
   <si>
+    <t>That JLO Glow</t>
+  </si>
+  <si>
     <t>JL1A0012</t>
   </si>
   <si>
@@ -631,6 +625,9 @@
     <t>JL1A0014</t>
   </si>
   <si>
+    <t>That Star Filter</t>
+  </si>
+  <si>
     <t>JL1A0020</t>
   </si>
   <si>
@@ -640,25 +637,31 @@
     <t>JL1A0022</t>
   </si>
   <si>
+    <t>That Limitless Glow</t>
+  </si>
+  <si>
+    <t>3 count no unit carton</t>
+  </si>
+  <si>
+    <t>Acq One Time Price Book ID</t>
+  </si>
+  <si>
+    <t>Subscribe and Save Price Book ID</t>
+  </si>
+  <si>
+    <t>PJLA3BR</t>
+  </si>
+  <si>
+    <t>PJLA3BS</t>
+  </si>
+  <si>
+    <t>Acq One Time price</t>
+  </si>
+  <si>
+    <t>Subscribe and Save price</t>
+  </si>
+  <si>
     <t>End</t>
-  </si>
-  <si>
-    <t>PJLA3BS</t>
-  </si>
-  <si>
-    <t>Subscribe and Save Price Book ID</t>
-  </si>
-  <si>
-    <t>Subscribe and Save price</t>
-  </si>
-  <si>
-    <t>PJLA3BR</t>
-  </si>
-  <si>
-    <t>Acq One Time price</t>
-  </si>
-  <si>
-    <t>Acq One Time Price Book ID</t>
   </si>
 </sst>
 </file>
@@ -778,17 +781,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1289,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C23628B-185B-40CD-97AD-1E9258EAAB0B}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,11 +1295,11 @@
     <col min="3" max="3" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="47" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="32.42578125" style="4" customWidth="1"/>
@@ -1347,16 +1340,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -1370,206 +1363,205 @@
     </row>
     <row r="2" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" s="13">
-        <v>118.5</v>
+        <v>176</v>
       </c>
       <c r="L2" s="13">
-        <f>K2*0.85</f>
-        <v>100.72499999999999</v>
+        <v>137</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="14" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" s="13">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L11" si="0">K3*0.85</f>
-        <v>49.3</v>
+        <f>K3*0.85</f>
+        <v>100.3</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="13">
+        <v>58</v>
+      </c>
+      <c r="L4" s="13">
+        <f t="shared" ref="L4:L12" si="0">K4*0.85</f>
+        <v>49.3</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="13">
-        <f t="shared" si="0"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="Q4" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="14" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K5" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L5" s="13">
         <f t="shared" si="0"/>
-        <v>33.15</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="120" x14ac:dyDescent="0.25">
@@ -1577,31 +1569,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6" s="13">
         <v>39</v>
@@ -1611,19 +1603,19 @@
         <v>33.15</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="120" x14ac:dyDescent="0.25">
@@ -1631,31 +1623,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" s="13">
         <v>39</v>
@@ -1665,19 +1657,19 @@
         <v>33.15</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="120" x14ac:dyDescent="0.25">
@@ -1685,31 +1677,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" s="13">
         <v>39</v>
@@ -1719,350 +1711,303 @@
         <v>33.15</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="I9" s="14" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K9" s="13">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>40.799999999999997</v>
+        <v>33.15</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="14" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K10" s="13">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>45.9</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="14" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K11" s="13">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
+        <v>45.9</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="13">
+        <v>48</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="0"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" s="2" t="s">
+      <c r="M12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="J13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13">
+        <v>18</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="13">
-        <v>137</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="13">
-        <v>79</v>
-      </c>
-      <c r="L15" s="13">
-        <f>K15*0.85</f>
-        <v>67.149999999999991</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="13">
-        <v>118.5</v>
-      </c>
-      <c r="L16" s="13">
-        <f>K16*0.85</f>
-        <v>100.72499999999999</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>37</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L12">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
+  <conditionalFormatting sqref="B3">
     <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
+  <conditionalFormatting sqref="B5">
     <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B7">
     <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B9">
+  <conditionalFormatting sqref="B8:B10">
     <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
+  <conditionalFormatting sqref="B6">
     <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10">
+  <conditionalFormatting sqref="B11">
     <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
+  <conditionalFormatting sqref="B12">
     <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="B13">
     <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2075,7 +2020,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,18 +2078,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H2" s="8">
         <v>58</v>
@@ -2160,18 +2105,18 @@
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" s="8">
         <v>48</v>
@@ -2187,18 +2132,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H4" s="8">
         <v>38</v>
@@ -2214,18 +2159,18 @@
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5" s="8">
         <v>54</v>
@@ -2241,18 +2186,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8">
         <v>79</v>
@@ -2268,18 +2213,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H7" s="8">
         <v>134</v>
@@ -2295,18 +2240,18 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H8" s="8">
         <v>48</v>
@@ -2322,20 +2267,20 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <v>39</v>
@@ -2351,20 +2296,20 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8">
         <v>39</v>
@@ -2380,20 +2325,20 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8">
         <v>39</v>
@@ -2409,20 +2354,20 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="H12" s="8">
         <v>39</v>
@@ -2438,18 +2383,18 @@
         <v>7</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="H13" s="8">
         <v>48</v>
@@ -2493,21 +2438,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2672,24 +2602,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F145DC-D757-46ED-87EF-D45D271AFCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160E64DB-09A3-4680-A435-5417FE45CA20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2">
+      <UserInfo>
+        <DisplayName>Sreedevi Pavan (Temp)</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{047ADCF2-ABF2-46C0-84F5-695A1DE373BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2706,4 +2642,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160E64DB-09A3-4680-A435-5417FE45CA20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F145DC-D757-46ED-87EF-D45D271AFCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Web Catalog.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/JLoBeauty/Web Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr_optimization\gr_optimization\Input_Output\BuyflowValidation\Merchandising Input\JLoBeauty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4343BDE-4335-4990-9234-EB8F8FBD1611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD7A816-30AB-48CB-A3FA-AA7A74784052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{001C9213-F839-49BA-A2B6-6242A2AE86E2}"/>
   </bookViews>
@@ -151,31 +151,11 @@
     <t>RJLA4CE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of That JLO Glow. Each shipment will be charged to the card you provide today, approximately every three months at the low price of $100.73 plus $5.99 for shipping and handling, unless you call to cancel.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>Three months after your first order is shipped, and then every three months thereafter, you will be sent a new full size supply of That JLO Glow. Each shipment will be charged to the card you provide today, approximately every three months at the low price of $100.30 plus $5.99 for shipping and handling, unless you call to cancel.
 All orders are subject to applicable sales tax.</t>
-    </r>
-  </si>
-  <si>
-    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of That JLO Glow. Each full-size shipment will be charged in one payment of $100.73 plus $5.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account.</t>
+  </si>
+  <si>
+    <t>I understand that three months after my first order is shipped, and then every three months thereafter, I will be sent a new full size supply of That JLO Glow. Each full-size shipment will be charged in one payment of $100.30 plus $5.99 for shipping and handling. I understand there is no minimum to buy, and I can easily customize or cancel this program just by visiting jlobeauty.com/account.</t>
   </si>
   <si>
     <t>JL.0002</t>
@@ -643,6 +623,12 @@
     <t>3 count no unit carton</t>
   </si>
   <si>
+    <t>Acq One Time price</t>
+  </si>
+  <si>
+    <t>Subscribe and Save price</t>
+  </si>
+  <si>
     <t>Acq One Time Price Book ID</t>
   </si>
   <si>
@@ -653,12 +639,6 @@
   </si>
   <si>
     <t>PJLA3BS</t>
-  </si>
-  <si>
-    <t>Acq One Time price</t>
-  </si>
-  <si>
-    <t>Subscribe and Save price</t>
   </si>
   <si>
     <t>End</t>
@@ -1284,9 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C23628B-185B-40CD-97AD-1E9258EAAB0B}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1340,16 +1318,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -1397,10 +1375,10 @@
         <v>137</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>21</v>
@@ -1449,10 +1427,10 @@
         <v>100.3</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>30</v>
@@ -1499,10 +1477,10 @@
         <v>49.3</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>37</v>
@@ -1549,10 +1527,10 @@
         <v>32.299999999999997</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>44</v>
@@ -1603,10 +1581,10 @@
         <v>33.15</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>53</v>
@@ -1657,10 +1635,10 @@
         <v>33.15</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>59</v>
@@ -1711,10 +1689,10 @@
         <v>33.15</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>65</v>
@@ -1765,10 +1743,10 @@
         <v>33.15</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>71</v>
@@ -1815,10 +1793,10 @@
         <v>40.799999999999997</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>78</v>
@@ -1865,10 +1843,10 @@
         <v>45.9</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>84</v>
@@ -1917,10 +1895,10 @@
         <v>40.799999999999997</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>92</v>
@@ -2438,6 +2416,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2">
+      <UserInfo>
+        <DisplayName>Sreedevi Pavan (Temp)</DisplayName>
+        <AccountId>52</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2602,30 +2603,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160E64DB-09A3-4680-A435-5417FE45CA20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2">
-      <UserInfo>
-        <DisplayName>Sreedevi Pavan (Temp)</DisplayName>
-        <AccountId>52</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F145DC-D757-46ED-87EF-D45D271AFCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{047ADCF2-ABF2-46C0-84F5-695A1DE373BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2642,22 +2638,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160E64DB-09A3-4680-A435-5417FE45CA20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1F145DC-D757-46ED-87EF-D45D271AFCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>